--- a/db/TGN-5201-Restaurant.xlsx
+++ b/db/TGN-5201-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F9B0F-3B9D-B948-B51B-3D4F73ECAB9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA97831-835A-9B44-AA24-48ECF678933B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="4980" windowWidth="33900" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="16620" yWindow="4860" windowWidth="33900" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,17 +111,407 @@
     <t>14</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>台南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永康區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳佐麻里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-203-5599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平日11:30AM~24:00PM 假日11:00AM-24:00PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.crun.com.tw/menu.php?act=list&amp;cid=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南燒肉最有名的應該是「碳佐麻里」.「碳佐麻里」很適合跟朋友或家人聚餐，因可選擇肉品種類多，燒肉品質好.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo-Mo-Paradise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南南紡購物中心5F，有一家吃到飽壽喜燒專賣店，店名叫「Mo-Mo-Paradise」，肉品、蔬菜、飲料都無限供應，共有五種鍋品供選擇，也有鴛鴦鍋可以搭配，而且食材新鮮，服務非常好.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市東區中華東路一段366號5樓 (南紡購物中心)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市永康區中華路796號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-209-9866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mo-mo.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES MARIE 也是瑪莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「YES MARIE 也是瑪莉」位於成大光復校區附近，是丁每次推薦朋友聚餐的首選餐廳，原因是餐點豐富多樣，有火鍋、義大利麵、泰式料理、焗烤跟甜點，加上距離台南後火車站很近，附近有付費停車場，如果有朋友從外地來台南，就非常適合當聚餐聚會的地點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南東區大學路西段53號2樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-234-4612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-04.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-05.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-08.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-09.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-10.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-11.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-12.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-13.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-14.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/yesmarietw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度皇宮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華東路上台南南紡夢時代有一家專賣印度料理的餐廳，店名叫「印度皇宮」，不愧是運用大量香料聞名的印度菜，香氣逼人啊～而印度皇宮有美味烤餅、濃郁咖哩，餐點都非常有特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市東區中華東路一段366號2樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-300-6828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-15:00、17:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.indiapalace.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開普三號店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E9%96%8B%E6%99%AE%E4%B8%89%E8%99%9F%E5%BA%97-CAPE-CAFE-3-439555272844579/</t>
+  </si>
+  <si>
+    <t>台南東區「開普三號店」， 專賣義大利麵、燉飯及限量的法式吐司，除此之外，這裡還有每日限定甜點，每次去都有不同驚喜，另外因為氣氛佳，餐點好吃，這家也是許多人心目中的口袋名單。這裡很適合三五朋友，來這裡聚餐聊天，如果剛好喜歡義大利麵及燉飯，就很推薦來這裡喔！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市東區長榮路三段66巷70號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 – 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-208-8911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖叫精緻炭火燒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/scream209/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南吃到飽一定要推薦鄰近南紡購物中心的「尖叫精緻炭火燒肉」，它有讓人瘋狂的活跳跳水道蝦、澎湃海鮮、精緻燒肉及現炒的鐵板燒、熟食及炸物，還有甜點控最愛的Cold Stone冰淇淋，重點是通通吃到飽！服務人員親切、用餐環境舒適</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市東區中華東路一段209號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30–22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0933-597-232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花世界鍋物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.siktungtainan.com/wswhotpot?fbclid=IwAR1ufcUttnuJLXhaq3kwDVeZemXwsHPmg9u1UKhESYMNeGc8HITlEtPfjgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南火鍋「花花世界鍋物」，是近期台南超浮誇火鍋之一，因為它有頂級的生食級海鮮、肉品，飲料無限暢飲，依人數推出的套餐，不管是個人或團體聚會都很適合，重點是美美的南洋風島嶼用餐空間，跟用心佈置的網美打卡區，真的會讓人想一再回訪！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市東區莊敬路118號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～週五11：30-24：00、週六、日11：00-24：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-208-1849</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓頂西餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.laplaza.com.tw/cupola.php?lang=tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於成功路的天下大飯店8F，有著在地人都知道的圓頂西餐廳，環境氣氛很好，非常適合約會、慶生、聚餐，午晚餐只要點主餐就能享有無限供應自助吧，重點是每道料理都非常用心及好吃，主餐選擇多樣，價格也不貴，CP值非常高，近期有慶生、聚會需求，千萬不能錯過～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市北區成功路202號8樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30-14:00、17:30-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-226-1901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dor,留 手工義大利麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dorstayUIJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「Dor,留 手工義大利麵」位於友愛街，是近期非常推薦的聚會餐廳，除了有好吃的手工義大利麵，還有一吃就難忘的披薩，加上餐廳氣氛佳，環境舒適，也很適合情侶約會，首選絕對是「Dor,留 手工義大利麵」，用餐過一次，就會被餐點及服務所驚艷.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區友愛街115巷5號之7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 – 15:30、17:30 – 21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-225-8282</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這一小鍋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.orissic.com/?fbclid=IwAR1mlsmSZkVV-mECHbm21eet96ogLC9lykZ-bGVv5Fr9hcU_SxtAk6uk-JA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「這一小鍋」的肉片份量多，主餐肉片選擇多樣，雞、豬、牛、羊、海鮮都有，而且湯底有六種可以選擇，對於肉食主義者的丁根本是天堂，但如果想用餐，假日是不能訂位的喔，都要現場等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區中山路162號12樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00–14:00、17:00–22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-222-0088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.fulou.com.tw/?fbclid=IwAR1X4FTndvY8kDL2d1uPN62ttnfgvem_21oqu5lFwvf-t-dKbfYaOpkhJms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮獲米其林綠色指南推薦餐廳福樓創始店1992年7月23日成立，是台南老字號的品牌，從燒烤攤起家，一直到現在成為台南人每逢佳節或是喜事最先想到的餐廳，原因是福樓擁有琳瑯滿目的四百種菜色，想吃合菜、燒烤、日式料理、川菜、鐵板燒這裡都有，加上食材非常新鮮，海鮮都當日運送，難怪現在經營多年人氣依然不減。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區永華路1段300號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-14:00 / 17:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06-295-7777 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光影新歐陸料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.siktungtainan.com/lesombres?fbclid=IwAR0N4ufokImrJGbsK53vlORnG9Xe4AlqEwd9btgGT1-g8wzKpu1WtJA3-cU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南中西區聚餐餐廳一定要推薦「Les Ombres 光影新歐陸料理」，第一次去你就會被它氣派的外觀嚇到，但實際用餐後，你會發現這家餐廳根本是寶藏，它算是餐酒館，所以有很多適合搭配餐點的酒，另外餐點種類豐富又美味，加上店內用餐環境質感又舒適，實在很難不愛上它啊！另外它也有民宿可以入住喔！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區和緯路五段203號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 – 14:00 、15:00 – 22:00（週一僅營業至16:00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06-350-6886</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有你真好火鍋沙龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/itsgoodtohaveyou/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南中西區火鍋店「有你真好火鍋沙龍」，有著極富質感的裝潢及內用空間，還有六種簡單卻不平凡的湯底，及多樣化的肉品、甜點、新鮮食材，整體氛圍及美食都非常適合聚餐、約會，而且營業到凌晨一點，夜貓族也可以吃！雖然價格偏高，但仍然會讓人想再二訪，這麼特別及漂亮的火鍋店，一定要來嚐鮮看看喔！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區民生路二段175號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 – 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06-223-3598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠然居生活茶坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南北區「悠然居生活茶坊」，採全包廂式的座位，適合與三五好友聚會的好去處，加上營業至凌晨三點，也造福不少夜貓族，而且悠然居生活茶坊提供的餐點十分豐富，像是火鍋、簡餐、義大利麵跟飲品通通都有，如果想找個既可以聊天又可以吃吃喝喝的地方，那麼悠然居生活茶坊就非常適合喔！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E6%82%A0%E7%84%B6%E5%B1%85-218389081505241/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市北區立賢路一段51號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-3:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-283-3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,31 +927,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="17" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="29" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="52.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="37" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13" style="5" customWidth="1"/>
+    <col min="11" max="11" width="29" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -581,194 +972,506 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" ht="32">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="64">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="80">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="64">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="28" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="80">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="80">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="80">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="64">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="96">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="96">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="96">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="96">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="D16" s="6"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="4:9">
       <c r="D17" s="6"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="H20" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="4:9">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="4:9">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="4:9">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{77846390-894E-444F-BA0E-6AA546CC8F17}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{D3A5E1C4-CA91-D04D-BB93-1CD89E77DCF0}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{D3362142-7384-1F44-9B79-6C4EA996008F}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{BF5B0F85-475D-414E-8EFF-F2117DD867A2}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{00305719-DA72-F84B-81CC-5FDA2144302A}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{FB915E35-FB8C-FF45-8C4A-B4D4E6A0864E}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{D4F76B42-92D2-8742-B11D-B170CFC1532B}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{07BC3418-0439-0142-817A-47D56799B293}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{E1E83258-BECE-2C47-88F8-AE12BDFF2044}"/>
+    <hyperlink ref="J12" r:id="rId10" xr:uid="{0E2C40E8-5E99-E94B-8458-25DE13AABF7D}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{33CC0143-25AD-A24E-8B5B-22FB587262FE}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{1966306F-00F0-4F46-B058-101F00BFFC6C}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{E9A5B649-45D6-B041-B193-17E4DFD83806}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/TGN-5201-Restaurant.xlsx
+++ b/db/TGN-5201-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA97831-835A-9B44-AA24-48ECF678933B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC0C2F4-93F2-CB4B-926D-BCE499B9C32B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="4860" windowWidth="33900" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="16140" yWindow="4840" windowWidth="33900" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,36 @@
   </si>
   <si>
     <t>06-283-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-15.jpg</t>
+  </si>
+  <si>
+    <t>尼法法式餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 - 14:30, 18:00 - 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-236-5880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市北區東豐路111號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Nephi111/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼法的裝潢可以說是比較復古, 可以看得出一點歷史, 但環境乾淨優雅, 會比較有點傳統的味道, 不過我覺得還不錯, 不管是服務生還是整個氛圍都給人一種放鬆安靜的心情,但尼法的菜單卻有一整頁的午餐套餐價錢都是1000以內, 也問過服務生餐點內容, 光是聽就物超所值, 如果想吃法餐但又不想花太多預算, 或是商務需要用餐, 真的都很不錯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,10 +960,10 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD24"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1432,9 +1462,37 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="D16" s="6"/>
-      <c r="I16" s="4"/>
+    <row r="16" spans="1:10" ht="96">
+      <c r="A16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="4:9">
       <c r="D17" s="6"/>
@@ -1471,6 +1529,7 @@
     <hyperlink ref="J13" r:id="rId11" xr:uid="{33CC0143-25AD-A24E-8B5B-22FB587262FE}"/>
     <hyperlink ref="J14" r:id="rId12" xr:uid="{1966306F-00F0-4F46-B058-101F00BFFC6C}"/>
     <hyperlink ref="J15" r:id="rId13" xr:uid="{E9A5B649-45D6-B041-B193-17E4DFD83806}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{FF895DDF-52A9-2449-B08C-5DA3EAA1BF55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/TGN-5201-Restaurant.xlsx
+++ b/db/TGN-5201-Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC0C2F4-93F2-CB4B-926D-BCE499B9C32B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D61EF8-9293-3044-BC80-0AB5E21F1070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="4840" windowWidth="33900" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="16180" yWindow="4900" windowWidth="33900" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="142">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,37 @@
   <si>
     <t>尼法的裝潢可以說是比較復古, 可以看得出一點歷史, 但環境乾淨優雅, 會比較有點傳統的味道, 不過我覺得還不錯, 不管是服務生還是整個氛圍都給人一種放鬆安靜的心情,但尼法的菜單卻有一整頁的午餐套餐價錢都是1000以內, 也問過服務生餐點內容, 光是聽就物超所值, 如果想吃法餐但又不想花太多預算, 或是商務需要用餐, 真的都很不錯</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+台南市台南市中西區忠義路2段1號五樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-223-3288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lumiere.com.tw/?fbclid=IwAR0r7xlVY6Ys5VBwr0q8bEAGOs-FB2CG1FENVrcwmYzrWFrLF6ZIJx65oq4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週二至週五AM11:30-PM21:00,週六、週日AM11:00-PM21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美。食光Lumière</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱身於南美館二館五樓的「LUMIÈRE美．食光」餐酒館，正是奇美食品旗下經營的餐廳之一，說它是最美的玻璃屋景觀餐廳可是一點也不為過!「LUMIÈRE美．食光」不僅擁有南美館二館最佳視野，每個座位區隨著不同光影的變化，所欣賞到的視野觀感都不一樣，從白天到夜晚變幻無窮的氛圍更是讓人著迷啊!這裡餐點以「分享」為主題，除了招牌的爐烤安格斯肋眼牛排非常受歡迎之外，並將在地的台南味融入餐點中，像是台南的肉燥飯、蝦仁飯、膨風豆、冬瓜茶、牛肉湯等小吃，巧妙地融入在西菜中，其中的創意與巧思讓人吃起來相當驚喜!這裡的無酒精調飲與調酒也非常特別，很適合三五好友、情侶夫妻、家庭聚餐或同事一起來吃飯小酌，保證也能吃得飽足又滿足!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-5201-Restauran-16.jpg</t>
   </si>
 </sst>
 </file>
@@ -963,7 +994,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1494,23 +1525,51 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="4:9">
-      <c r="D17" s="6"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="4:9">
+    <row r="17" spans="1:10" ht="192">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="4:9">
+    <row r="19" spans="1:10">
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="1:10">
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="1:10">
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="4:9">
+    <row r="22" spans="1:10">
       <c r="I22" s="4"/>
     </row>
   </sheetData>
@@ -1530,6 +1589,7 @@
     <hyperlink ref="J14" r:id="rId12" xr:uid="{1966306F-00F0-4F46-B058-101F00BFFC6C}"/>
     <hyperlink ref="J15" r:id="rId13" xr:uid="{E9A5B649-45D6-B041-B193-17E4DFD83806}"/>
     <hyperlink ref="J16" r:id="rId14" xr:uid="{FF895DDF-52A9-2449-B08C-5DA3EAA1BF55}"/>
+    <hyperlink ref="J17" r:id="rId15" xr:uid="{2349894C-7C49-6C43-8E29-4C0AC90AD548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
